--- a/Resources/Components & Cost.xlsx
+++ b/Resources/Components & Cost.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20363"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20369"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B20804E4-5AB9-4242-A857-F73F0120BEB2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CF43110-71B2-4C64-803D-17F422BFB2E6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,49 +20,70 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
-  <si>
-    <t>Wordclock Componenten</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>Esp32</t>
   </si>
   <si>
-    <t>Acryl 1mm</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 3 auf einmal</t>
-  </si>
-  <si>
     <t xml:space="preserve">Pcb </t>
   </si>
   <si>
-    <t>Frame</t>
-  </si>
-  <si>
     <t>power supply</t>
   </si>
   <si>
-    <t>Faceplate</t>
-  </si>
-  <si>
-    <t>printet</t>
-  </si>
-  <si>
     <t>overall price</t>
   </si>
   <si>
-    <t>Acryl</t>
+    <t>PVC 10mm</t>
+  </si>
+  <si>
+    <t>40€/m2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wordclock Components </t>
+  </si>
+  <si>
+    <t>Front plott</t>
+  </si>
+  <si>
+    <t>Plexiglas cut to size</t>
+  </si>
+  <si>
+    <t>micro usb connector</t>
+  </si>
+  <si>
+    <t>10 pack</t>
+  </si>
+  <si>
+    <t>diffuser</t>
+  </si>
+  <si>
+    <t>magnets</t>
+  </si>
+  <si>
+    <t>6€ for 60</t>
+  </si>
+  <si>
+    <t>Phone USB PSU</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="3">
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="#,##0\ [$€-1];[Red]\-#,##0\ [$€-1]"/>
+    <numFmt numFmtId="166" formatCode="_([$€-2]\ * #,##0.00_);_([$€-2]\ * \(#,##0.00\);_([$€-2]\ * &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -73,7 +94,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -92,7 +120,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -115,19 +143,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="2" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Berechnung" xfId="1" builtinId="22"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Währung" xfId="1" builtinId="4"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -405,81 +446,110 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E10"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
-        <v>8</v>
-      </c>
       <c r="C3" s="2">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>2</v>
-      </c>
-      <c r="E3" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>1</v>
-      </c>
-      <c r="C4" s="2">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>4</v>
       </c>
       <c r="C5" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="C6" s="2">
-        <v>8</v>
+        <v>0.6</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5</v>
+      </c>
+      <c r="D8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1">
-        <f>SUM(C3:C7)</f>
-        <v>39</v>
+      <c r="C10" s="4">
+        <v>1</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" s="1">
+        <f>SUM(C3:C11)</f>
+        <v>44.5</v>
       </c>
     </row>
   </sheetData>
